--- a/public/data/db_source/modality.xlsx
+++ b/public/data/db_source/modality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannuaire/datannuaire_dev/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9F3CA7-5ABF-FF4E-8E45-1D961F234FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D98C5-8052-DC42-84CD-3F06D2C55554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12680" yWindow="500" windowWidth="16120" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -37,9 +37,6 @@
     <t>modality_1</t>
   </si>
   <si>
-    <t>folder_1</t>
-  </si>
-  <si>
     <t>modality 1</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>a_or_b_or_c</t>
   </si>
   <si>
-    <t>folder_2</t>
-  </si>
-  <si>
     <t>a or b or c</t>
   </si>
   <si>
@@ -74,6 +68,48 @@
   </si>
   <si>
     <t>contains only a 0 value</t>
+  </si>
+  <si>
+    <t>13-protec-social</t>
+  </si>
+  <si>
+    <t>00-base</t>
+  </si>
+  <si>
+    <t>canton_sigle</t>
+  </si>
+  <si>
+    <t>langue_sigle</t>
+  </si>
+  <si>
+    <t>oui_non</t>
+  </si>
+  <si>
+    <t>Sigle des cantons</t>
+  </si>
+  <si>
+    <t>Sigle des langues</t>
+  </si>
+  <si>
+    <t>Oui ou non</t>
+  </si>
+  <si>
+    <t>Liste des 26 cantons suisses et leur sigle</t>
+  </si>
+  <si>
+    <t>Liste des 3 principales langues suisses et leur sigle</t>
+  </si>
+  <si>
+    <t>Oui ou non codé en 0 ou 1</t>
+  </si>
+  <si>
+    <t>vide / manquant</t>
+  </si>
+  <si>
+    <t>vide</t>
+  </si>
+  <si>
+    <t>Valeur vide ou manquante</t>
   </si>
 </sst>
 </file>
@@ -109,8 +145,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,8 +168,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0819B31A-F2BF-4744-8441-BAF17007DF3A}" name="Tableau1" displayName="Tableau1" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{0819B31A-F2BF-4744-8441-BAF17007DF3A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0819B31A-F2BF-4744-8441-BAF17007DF3A}" name="Tableau1" displayName="Tableau1" ref="A1:D9" totalsRowShown="0">
+  <autoFilter ref="A1:D9" xr:uid="{0819B31A-F2BF-4744-8441-BAF17007DF3A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A59F3296-6170-8C44-AAB4-33566FB21208}" name="id"/>
     <tableColumn id="2" xr3:uid="{1625FB86-6700-3541-BF76-7DA95785C850}" name="folder_id"/>
@@ -428,18 +467,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -461,55 +500,111 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/db_source/modality.xlsx
+++ b/public/data/db_source/modality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D98C5-8052-DC42-84CD-3F06D2C55554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3082FEA1-540F-1D40-A271-2FCEBC4039B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12680" yWindow="500" windowWidth="16120" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17040" yWindow="500" windowWidth="11760" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>Valeur vide ou manquante</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -168,12 +177,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0819B31A-F2BF-4744-8441-BAF17007DF3A}" name="Tableau1" displayName="Tableau1" ref="A1:D9" totalsRowShown="0">
-  <autoFilter ref="A1:D9" xr:uid="{0819B31A-F2BF-4744-8441-BAF17007DF3A}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0819B31A-F2BF-4744-8441-BAF17007DF3A}" name="Tableau1" displayName="Tableau1" ref="A1:E9" totalsRowShown="0">
+  <autoFilter ref="A1:E9" xr:uid="{0819B31A-F2BF-4744-8441-BAF17007DF3A}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A59F3296-6170-8C44-AAB4-33566FB21208}" name="id"/>
     <tableColumn id="2" xr3:uid="{1625FB86-6700-3541-BF76-7DA95785C850}" name="folder_id"/>
     <tableColumn id="3" xr3:uid="{3974BE75-B2D8-324A-B6D0-6CE67FD5E382}" name="name"/>
+    <tableColumn id="5" xr3:uid="{00078D21-86EF-A44F-9C95-D4434916D0AD}" name="type"/>
     <tableColumn id="4" xr3:uid="{C991187E-147D-C84D-9961-61BC87A94E2E}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -467,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -478,10 +488,11 @@
     <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,10 +503,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -506,10 +520,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -520,10 +537,13 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -534,10 +554,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -548,10 +571,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -562,10 +588,13 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -576,10 +605,13 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -590,10 +622,13 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -604,6 +639,9 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
     </row>
